--- a/biology/Mycologie/Cribraria/Cribraria.xlsx
+++ b/biology/Mycologie/Cribraria/Cribraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cribaria est aussi un synonyme du genre de gastéropodes marins Cribrarula.
 Cribraria est un genre d'amibozoaires de la famille des Cribrariaceae et de l'ordre des Liceales.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Index Fungorum (site consulté le 19/03/2018)
 Cribraria angulospora - Cribraria argillacea - Cribraria atrofusca - Cribraria aurantiaca - Cribraria badia - Cribraria bieniaszii - Cribraria bulliardii - Cribraria candida - Cribraria cernua - Cribraria coccinea - Cribraria colossea - Cribraria confusa - Cribraria costata - Cribraria cribrarioides - Cribraria cuprea - Cribraria dictydioides - Cribraria dictyospora - Cribraria didermoides - Cribraria elata - Cribraria elegans - Cribraria enodis - Cribraria exigua - Cribraria exiles - Cribraria ferruginea - Cribraria filiformis - Cribraria fragilis - Cribraria fulva - Cribraria intermedia - Cribraria intricata - Cribraria irregularis - Cribraria languescens - Cribraria laxa - Cribraria lepida - Cribraria lycopodii - Cribraria macrocarpa - Cribraria macrospora - Cribraria macrostipitata - Cribraria martinii - Cribraria media - Cribraria meylanii - Cribraria microcarpa - Cribraria micropus - Cribraria microscopica - Cribraria minima - Cribraria minutissima - Cribraria mirabilis - Cribraria montana - Cribraria mutabilis - Cribraria oregana - Cribraria pachydictyon - Cribraria pallida - Cribraria paucicostata - Cribraria paucidictyon - Cribraria perpusilla - Cribraria persoonii - Cribraria pertenuis - Cribraria piriformis - Cribraria purpurea - Cribraria rubiginosa - Cribraria rufa - Cribraria rutila - Cribraria splendens - Cribraria stellata - Cribraria stellifera - Cribraria straminiformis - Cribraria tatrica - Cribraria tecta - Cribraria tenella - Cribraria variabilis - Cribraria venosa - Cribraria violacea - Cribraria vulgaris - Cribraria zonatispora
